--- a/Assets/Configs/Inventory/Property/Xlsxs/EatablePropertyData.xlsx
+++ b/Assets/Configs/Inventory/Property/Xlsxs/EatablePropertyData.xlsx
@@ -686,15 +686,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,7 +1007,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8181818181818" defaultRowHeight="15.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1022,33 +1016,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>100001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1">
@@ -1068,10 +1062,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>100002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1">
@@ -1091,10 +1085,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>100003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1">
@@ -1114,10 +1108,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>100004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
@@ -1137,10 +1131,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>100005</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1">
